--- a/Summurization/results.xlsx
+++ b/Summurization/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivan\Desktop\Course\blog.python.server\Summurization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A911016D-05F7-411F-AD05-75342A7DB7C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73CE1655-BC9D-4ACA-ACAD-D55CEE18A8FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11746" activeTab="1" xr2:uid="{89A11043-4CAB-4AAD-B756-F2FA6E414E8F}"/>
   </bookViews>
@@ -121,13 +121,13 @@
     <t>rouge-l</t>
   </si>
   <si>
-    <t>vinner</t>
-  </si>
-  <si>
     <t>XLNet</t>
   </si>
   <si>
     <t>BERT</t>
+  </si>
+  <si>
+    <t>winner</t>
   </si>
 </sst>
 </file>
@@ -321,19 +321,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -344,15 +332,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -363,9 +342,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -382,6 +358,30 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -700,8 +700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C07F3309-AF21-4FC6-9639-6EEAB3FB7906}">
   <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -725,124 +725,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="7" t="s">
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="9"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="27"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A2" s="5"/>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="28"/>
+      <c r="B2" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="7" t="s">
+      <c r="C2" s="26"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="7" t="s">
+      <c r="F2" s="26"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="8"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="7" t="s">
+      <c r="I2" s="26"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="8"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="7" t="s">
+      <c r="L2" s="26"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="8"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="7" t="s">
+      <c r="O2" s="26"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="R2" s="8"/>
-      <c r="S2" s="9"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="27"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A3" s="5"/>
-      <c r="B3" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="11" t="s">
+      <c r="A3" s="28"/>
+      <c r="B3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="11" t="s">
+      <c r="E3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="I3" s="11" t="s">
+      <c r="H3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="L3" s="10" t="s">
+      <c r="K3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="M3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="O3" s="10" t="s">
+      <c r="N3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="O3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="P3" s="10" t="s">
+      <c r="P3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="Q3" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="R3" s="10" t="s">
+      <c r="Q3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="R3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="S3" s="10" t="s">
+      <c r="S3" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="3">
@@ -901,7 +901,7 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="3">
@@ -960,7 +960,7 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="3">
@@ -1019,7 +1019,7 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="3">
@@ -1078,7 +1078,7 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="3">
@@ -1137,7 +1137,7 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="3">
@@ -1196,7 +1196,7 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="3">
@@ -1255,7 +1255,7 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="3">
@@ -1314,7 +1314,7 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="3">
@@ -1373,7 +1373,7 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B13" s="3">
@@ -1432,7 +1432,7 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="3">
@@ -1491,7 +1491,7 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="3">
@@ -1549,79 +1549,79 @@
         <v>0.38830409043096298</v>
       </c>
     </row>
-    <row r="17" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="15" t="s">
+    <row r="17" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17" s="9">
         <f>AVERAGE(B4:B15)</f>
         <v>0.25610713151859649</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="8">
         <f t="shared" ref="C17:S17" si="0">AVERAGE(C4:C15)</f>
         <v>0.99840134460484853</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="8">
         <f t="shared" si="0"/>
         <v>0.40522149180965233</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="8">
         <f t="shared" si="0"/>
         <v>0.17774970478584304</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F17" s="8">
         <f t="shared" si="0"/>
         <v>0.95370706301456221</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G17" s="8">
         <f t="shared" si="0"/>
         <v>0.298154440876716</v>
       </c>
-      <c r="H17" s="12">
+      <c r="H17" s="8">
         <f t="shared" si="0"/>
         <v>0.2559666006373052</v>
       </c>
-      <c r="I17" s="12">
+      <c r="I17" s="8">
         <f t="shared" si="0"/>
         <v>0.99780677617638414</v>
       </c>
-      <c r="J17" s="12">
+      <c r="J17" s="8">
         <f t="shared" si="0"/>
         <v>0.40499871253391656</v>
       </c>
-      <c r="K17" s="12">
+      <c r="K17" s="8">
         <f>AVERAGE(K4:K15)</f>
         <v>0.22596781425509771</v>
       </c>
-      <c r="L17" s="12">
+      <c r="L17" s="8">
         <f t="shared" si="0"/>
         <v>0.99844129844129847</v>
       </c>
-      <c r="M17" s="12">
+      <c r="M17" s="8">
         <f t="shared" si="0"/>
         <v>0.36694760413318378</v>
       </c>
-      <c r="N17" s="12">
+      <c r="N17" s="8">
         <f t="shared" si="0"/>
         <v>0.15007958810581967</v>
       </c>
-      <c r="O17" s="12">
+      <c r="O17" s="8">
         <f t="shared" si="0"/>
         <v>0.94183150759561085</v>
       </c>
-      <c r="P17" s="12">
+      <c r="P17" s="8">
         <f t="shared" si="0"/>
         <v>0.25813782164794191</v>
       </c>
-      <c r="Q17" s="12">
+      <c r="Q17" s="8">
         <f t="shared" si="0"/>
         <v>0.22584919613418805</v>
       </c>
-      <c r="R17" s="12">
+      <c r="R17" s="8">
         <f t="shared" si="0"/>
         <v>0.99801493587901347</v>
       </c>
-      <c r="S17" s="12">
+      <c r="S17" s="8">
         <f t="shared" si="0"/>
         <v>0.36676201010507409</v>
       </c>
@@ -1629,21 +1629,21 @@
     <row r="22" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="20" t="s">
+      <c r="D22" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="21" t="s">
-        <v>28</v>
+      <c r="E22" s="14" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C23" s="4">
@@ -1654,7 +1654,7 @@
         <f>K17</f>
         <v>0.22596781425509771</v>
       </c>
-      <c r="E23" s="22" t="s">
+      <c r="E23" s="15" t="s">
         <v>20</v>
       </c>
       <c r="H23" t="s">
@@ -1665,8 +1665,8 @@
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A24" s="17"/>
-      <c r="B24" s="19" t="s">
+      <c r="A24" s="23"/>
+      <c r="B24" s="12" t="s">
         <v>3</v>
       </c>
       <c r="C24" s="2">
@@ -1677,7 +1677,7 @@
         <f>L17</f>
         <v>0.99844129844129847</v>
       </c>
-      <c r="E24" s="22" t="s">
+      <c r="E24" s="15" t="s">
         <v>21</v>
       </c>
       <c r="H24" t="s">
@@ -1688,8 +1688,8 @@
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A25" s="18"/>
-      <c r="B25" s="19" t="s">
+      <c r="A25" s="24"/>
+      <c r="B25" s="12" t="s">
         <v>4</v>
       </c>
       <c r="C25" s="2">
@@ -1700,15 +1700,15 @@
         <f>M17</f>
         <v>0.36694760413318378</v>
       </c>
-      <c r="E25" s="22" t="s">
+      <c r="E25" s="15" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="19" t="s">
+      <c r="B26" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C26" s="2">
@@ -1719,13 +1719,13 @@
         <f>N17</f>
         <v>0.15007958810581967</v>
       </c>
-      <c r="E26" s="22" t="s">
+      <c r="E26" s="15" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A27" s="17"/>
-      <c r="B27" s="19" t="s">
+      <c r="A27" s="23"/>
+      <c r="B27" s="12" t="s">
         <v>3</v>
       </c>
       <c r="C27" s="2">
@@ -1736,13 +1736,13 @@
         <f>O17</f>
         <v>0.94183150759561085</v>
       </c>
-      <c r="E27" s="22" t="s">
+      <c r="E27" s="15" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A28" s="18"/>
-      <c r="B28" s="19" t="s">
+      <c r="A28" s="24"/>
+      <c r="B28" s="12" t="s">
         <v>4</v>
       </c>
       <c r="C28" s="2">
@@ -1753,15 +1753,15 @@
         <f>P17</f>
         <v>0.25813782164794191</v>
       </c>
-      <c r="E28" s="22" t="s">
+      <c r="E28" s="15" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="19" t="s">
+      <c r="B29" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C29" s="2">
@@ -1772,13 +1772,13 @@
         <f>Q17</f>
         <v>0.22584919613418805</v>
       </c>
-      <c r="E29" s="22" t="s">
+      <c r="E29" s="15" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A30" s="17"/>
-      <c r="B30" s="19" t="s">
+      <c r="A30" s="23"/>
+      <c r="B30" s="12" t="s">
         <v>3</v>
       </c>
       <c r="C30" s="2">
@@ -1789,13 +1789,13 @@
         <f>R17</f>
         <v>0.99801493587901347</v>
       </c>
-      <c r="E30" s="22" t="s">
+      <c r="E30" s="15" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A31" s="18"/>
-      <c r="B31" s="19" t="s">
+      <c r="A31" s="24"/>
+      <c r="B31" s="12" t="s">
         <v>4</v>
       </c>
       <c r="C31" s="2">
@@ -1806,7 +1806,7 @@
         <f>S17</f>
         <v>0.36676201010507409</v>
       </c>
-      <c r="E31" s="22" t="s">
+      <c r="E31" s="15" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1833,8 +1833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{754C09D9-30A0-49DF-B893-D738C413C882}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1849,43 +1849,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23" t="s">
+      <c r="B1" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A2" s="5"/>
-      <c r="B2" s="11" t="s">
+      <c r="A2" s="28"/>
+      <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="11" t="s">
+      <c r="C2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="11" t="s">
+      <c r="F2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="16" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="2">
@@ -1908,7 +1908,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="2">
@@ -1931,7 +1931,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="16" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="2">
@@ -1954,7 +1954,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="16" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="2">
@@ -1977,7 +1977,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="16" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="2">
@@ -2000,7 +2000,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="16" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="2">
@@ -2023,7 +2023,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="16" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="2">
@@ -2046,7 +2046,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="16" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="2">
@@ -2069,7 +2069,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="16" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="2">
@@ -2092,7 +2092,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="16" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="2">
@@ -2115,7 +2115,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="16" t="s">
         <v>19</v>
       </c>
       <c r="B13" s="2">
@@ -2138,7 +2138,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="16" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="2">
@@ -2161,48 +2161,48 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="26">
+      <c r="B16" s="18">
         <f>AVERAGE(B3:B14)</f>
         <v>0.80805884798367789</v>
       </c>
-      <c r="C16" s="26">
+      <c r="C16" s="18">
         <f t="shared" ref="C16:G16" si="0">AVERAGE(C3:C14)</f>
         <v>0.81220695376396124</v>
       </c>
-      <c r="D16" s="26">
+      <c r="D16" s="18">
         <f t="shared" si="0"/>
         <v>0.81011780599753036</v>
       </c>
-      <c r="E16" s="26">
+      <c r="E16" s="18">
         <f t="shared" si="0"/>
         <v>0.79701555768648757</v>
       </c>
-      <c r="F16" s="26">
+      <c r="F16" s="18">
         <f t="shared" si="0"/>
         <v>0.80103877186775174</v>
       </c>
-      <c r="G16" s="26">
+      <c r="G16" s="18">
         <f t="shared" si="0"/>
         <v>0.79900405804316155</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18" s="1"/>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="28" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A19" s="27" t="s">
+      <c r="A19" s="19" t="s">
         <v>3</v>
       </c>
       <c r="B19" s="1">
@@ -2213,7 +2213,7 @@
         <f>E16</f>
         <v>0.79701555768648757</v>
       </c>
-      <c r="D19" s="29" t="s">
+      <c r="D19" s="21" t="s">
         <v>20</v>
       </c>
       <c r="G19" t="s">
@@ -2224,7 +2224,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A20" s="27" t="s">
+      <c r="A20" s="19" t="s">
         <v>1</v>
       </c>
       <c r="B20" s="1">
@@ -2235,7 +2235,7 @@
         <f>F16</f>
         <v>0.80103877186775174</v>
       </c>
-      <c r="D20" s="29" t="s">
+      <c r="D20" s="21" t="s">
         <v>20</v>
       </c>
       <c r="G20" t="s">
@@ -2246,7 +2246,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A21" s="27" t="s">
+      <c r="A21" s="19" t="s">
         <v>4</v>
       </c>
       <c r="B21" s="1">
@@ -2257,7 +2257,7 @@
         <f>G16</f>
         <v>0.79900405804316155</v>
       </c>
-      <c r="D21" s="29" t="s">
+      <c r="D21" s="21" t="s">
         <v>20</v>
       </c>
     </row>
